--- a/资产负债表/688571.xlsx
+++ b/资产负债表/688571.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,47 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>1107882111.87</v>
+        <v>1116067095.57</v>
       </c>
       <c r="P2" t="n">
-        <v>194501999.73</v>
+        <v>150714731.22</v>
       </c>
       <c r="Q2" t="n">
-        <v>315718226.39</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>291715724.81</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-12.427383843</v>
+      </c>
       <c r="S2" t="n">
-        <v>233642525.58</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>255370172.84</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.1289325344</v>
+      </c>
       <c r="U2" t="n">
-        <v>112894346.91</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>143778964.46</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-3.2544823115</v>
+      </c>
       <c r="W2" t="n">
-        <v>234796113.94</v>
+        <v>297545549.2</v>
       </c>
       <c r="X2" t="n">
-        <v>194809666.26</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>226919998.06</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.7313219379</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>615728.1899999999</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-61.1482598574</v>
+      </c>
       <c r="AB2" t="n">
-        <v>873085997.9299999</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>818521546.37</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>5.9043464767</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.0399114802</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-4.0958334824</v>
+      </c>
       <c r="AF2" t="n">
-        <v>334.0200058736</v>
+        <v>290.5918547554</v>
       </c>
       <c r="AG2" t="n">
-        <v>21.1932399146</v>
+        <v>26.660184713</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
